--- a/workout22.xlsx
+++ b/workout22.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24905"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johnoliver/Downloads/shinyapp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/var/mobile/Containers/Data/Application/E5E671E7-52FE-4D5C-95F8-C245D2462483/Library/Application Support/Drafts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C19795A5-B79C-AD47-A589-DC5C3EDF0D84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5946C8EF-8FEF-40BB-AD12-2C0EAF738941}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="lifts" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="25">
   <si>
     <t>Date</t>
   </si>
@@ -113,7 +113,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -461,21 +461,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6E4EE9B-6B0A-0E43-9829-E613189EB70C}">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.1640625" customWidth="1"/>
-    <col min="3" max="3" width="13.5" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -495,7 +494,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>44569</v>
       </c>
@@ -515,7 +514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>44569</v>
       </c>
@@ -535,7 +534,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>44569</v>
       </c>
@@ -555,7 +554,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>44569</v>
       </c>
@@ -575,7 +574,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>44569</v>
       </c>
@@ -595,7 +594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>44569</v>
       </c>
@@ -615,7 +614,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>44569</v>
       </c>
@@ -635,7 +634,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>44569</v>
       </c>
@@ -655,7 +654,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>44569</v>
       </c>
@@ -675,7 +674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>44569</v>
       </c>
@@ -695,7 +694,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>44569</v>
       </c>
@@ -715,7 +714,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>44569</v>
       </c>
@@ -735,7 +734,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>44570</v>
       </c>
@@ -755,7 +754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>44570</v>
       </c>
@@ -775,7 +774,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="A16" s="1">
         <v>44570</v>
       </c>
@@ -795,7 +794,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6">
       <c r="A17" s="1">
         <v>44570</v>
       </c>
@@ -815,7 +814,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6">
       <c r="A18" s="1">
         <v>44570</v>
       </c>
@@ -835,7 +834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6">
       <c r="A19" s="1">
         <v>44570</v>
       </c>
@@ -855,7 +854,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6">
       <c r="A20" s="1">
         <v>44570</v>
       </c>
@@ -875,7 +874,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6">
       <c r="A21" s="1">
         <v>44570</v>
       </c>
@@ -895,7 +894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6">
       <c r="A22" s="1">
         <v>44570</v>
       </c>
@@ -915,7 +914,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6">
       <c r="A23" s="1">
         <v>44570</v>
       </c>
@@ -935,7 +934,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6">
       <c r="A24" s="1">
         <v>44570</v>
       </c>
@@ -955,7 +954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6">
       <c r="A25" s="1">
         <v>44570</v>
       </c>
@@ -975,7 +974,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6">
       <c r="A26" s="1">
         <v>44570</v>
       </c>
@@ -994,6 +993,15 @@
       <c r="F26">
         <v>3</v>
       </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="1"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="1"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1002,20 +1010,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27074B4C-337B-614D-A211-89D1F1B8F584}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1035,7 +1043,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>44569</v>
       </c>
@@ -1055,7 +1063,7 @@
         <v>0.72916666666666663</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>44570</v>
       </c>
@@ -1075,7 +1083,7 @@
         <v>0.34375</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>44571</v>
       </c>
@@ -1093,6 +1101,26 @@
       </c>
       <c r="F4" s="2">
         <v>0.75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>44572</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2.2368055555555553</v>
+      </c>
+      <c r="D5">
+        <v>168</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>

--- a/workout22.xlsx
+++ b/workout22.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24905"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/var/mobile/Containers/Data/Application/E5E671E7-52FE-4D5C-95F8-C245D2462483/Library/Application Support/Drafts/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johnoliver/Downloads/shiny_workout_track/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5946C8EF-8FEF-40BB-AD12-2C0EAF738941}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55A09954-6FB3-1F4F-AEC1-6E4D0FD375B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="lifts" sheetId="1" r:id="rId1"/>
@@ -113,7 +113,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="h:mm;@"/>
+  </numFmts>
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -145,8 +148,8 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -461,20 +464,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6E4EE9B-6B0A-0E43-9829-E613189EB70C}">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.1640625" customWidth="1"/>
+    <col min="3" max="3" width="13.5" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -494,7 +498,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>44569</v>
       </c>
@@ -514,7 +518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>44569</v>
       </c>
@@ -534,7 +538,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>44569</v>
       </c>
@@ -554,7 +558,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>44569</v>
       </c>
@@ -574,7 +578,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>44569</v>
       </c>
@@ -594,7 +598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>44569</v>
       </c>
@@ -614,7 +618,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>44569</v>
       </c>
@@ -634,7 +638,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>44569</v>
       </c>
@@ -654,7 +658,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>44569</v>
       </c>
@@ -674,7 +678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>44569</v>
       </c>
@@ -694,7 +698,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>44569</v>
       </c>
@@ -714,7 +718,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>44569</v>
       </c>
@@ -734,7 +738,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>44570</v>
       </c>
@@ -754,7 +758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>44570</v>
       </c>
@@ -774,7 +778,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>44570</v>
       </c>
@@ -794,7 +798,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>44570</v>
       </c>
@@ -814,7 +818,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>44570</v>
       </c>
@@ -834,7 +838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>44570</v>
       </c>
@@ -854,7 +858,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>44570</v>
       </c>
@@ -874,7 +878,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>44570</v>
       </c>
@@ -894,7 +898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>44570</v>
       </c>
@@ -914,7 +918,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>44570</v>
       </c>
@@ -934,7 +938,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>44570</v>
       </c>
@@ -954,7 +958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>44570</v>
       </c>
@@ -974,7 +978,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>44570</v>
       </c>
@@ -993,15 +997,6 @@
       <c r="F26">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="1"/>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="1"/>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1013,24 +1008,25 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5" customWidth="1"/>
+    <col min="6" max="6" width="11" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1" t="s">
@@ -1039,19 +1035,19 @@
       <c r="E1" t="s">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>44569</v>
       </c>
       <c r="B2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="3">
-        <v>2.4472222222222224</v>
+      <c r="C2" s="2">
+        <v>58</v>
       </c>
       <c r="D2">
         <v>309</v>
@@ -1059,19 +1055,19 @@
       <c r="E2" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="3">
         <v>0.72916666666666663</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>44570</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="3">
-        <v>2.5354166666666669</v>
+      <c r="C3" s="2">
+        <v>60</v>
       </c>
       <c r="D3">
         <v>450</v>
@@ -1079,19 +1075,19 @@
       <c r="E3" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="3">
         <v>0.34375</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>44571</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="3">
-        <v>2.0951388888888887</v>
+      <c r="C4" s="2">
+        <v>50</v>
       </c>
       <c r="D4">
         <v>231</v>
@@ -1099,27 +1095,27 @@
       <c r="E4" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="3">
         <v>0.75</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>44572</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="3">
-        <v>2.2368055555555553</v>
+        <v>24</v>
+      </c>
+      <c r="C5" s="2">
+        <v>45</v>
       </c>
       <c r="D5">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="E5" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="3">
         <v>0.5</v>
       </c>
     </row>

--- a/workout22.xlsx
+++ b/workout22.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24905"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johnoliver/Downloads/shiny_workout_track/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/var/mobile/Containers/Data/Application/E5E671E7-52FE-4D5C-95F8-C245D2462483/Library/Application Support/Drafts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55A09954-6FB3-1F4F-AEC1-6E4D0FD375B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E86A29FB-8AF0-43B0-BE2F-204F850C2D21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="lifts" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="27">
   <si>
     <t>Date</t>
   </si>
@@ -85,6 +85,9 @@
     <t>Dumbell</t>
   </si>
   <si>
+    <t>Shoulder Press</t>
+  </si>
+  <si>
     <t>Workout</t>
   </si>
   <si>
@@ -107,16 +110,16 @@
   </si>
   <si>
     <t>Cardio</t>
+  </si>
+  <si>
+    <t>District 901</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="h:mm;@"/>
-  </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,8 +151,8 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -464,21 +467,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6E4EE9B-6B0A-0E43-9829-E613189EB70C}">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.1640625" customWidth="1"/>
-    <col min="3" max="3" width="13.5" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -498,7 +501,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>44569</v>
       </c>
@@ -518,7 +521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>44569</v>
       </c>
@@ -538,7 +541,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>44569</v>
       </c>
@@ -558,7 +561,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>44569</v>
       </c>
@@ -578,7 +581,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>44569</v>
       </c>
@@ -598,7 +601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>44569</v>
       </c>
@@ -618,7 +621,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>44569</v>
       </c>
@@ -638,7 +641,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>44569</v>
       </c>
@@ -658,7 +661,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>44569</v>
       </c>
@@ -678,7 +681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>44569</v>
       </c>
@@ -698,7 +701,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>44569</v>
       </c>
@@ -718,7 +721,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>44569</v>
       </c>
@@ -738,7 +741,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>44570</v>
       </c>
@@ -758,7 +761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>44570</v>
       </c>
@@ -778,7 +781,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="A16" s="1">
         <v>44570</v>
       </c>
@@ -798,7 +801,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6">
       <c r="A17" s="1">
         <v>44570</v>
       </c>
@@ -818,7 +821,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6">
       <c r="A18" s="1">
         <v>44570</v>
       </c>
@@ -838,7 +841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6">
       <c r="A19" s="1">
         <v>44570</v>
       </c>
@@ -858,7 +861,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6">
       <c r="A20" s="1">
         <v>44570</v>
       </c>
@@ -878,7 +881,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6">
       <c r="A21" s="1">
         <v>44570</v>
       </c>
@@ -898,7 +901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6">
       <c r="A22" s="1">
         <v>44570</v>
       </c>
@@ -918,7 +921,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6">
       <c r="A23" s="1">
         <v>44570</v>
       </c>
@@ -938,7 +941,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6">
       <c r="A24" s="1">
         <v>44570</v>
       </c>
@@ -958,7 +961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6">
       <c r="A25" s="1">
         <v>44570</v>
       </c>
@@ -978,7 +981,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6">
       <c r="A26" s="1">
         <v>44570</v>
       </c>
@@ -997,6 +1000,167 @@
       <c r="F26">
         <v>3</v>
       </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="1">
+        <v>44573</v>
+      </c>
+      <c r="B27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27">
+        <v>165</v>
+      </c>
+      <c r="E27">
+        <v>8</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="1">
+        <v>44573</v>
+      </c>
+      <c r="B28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28">
+        <v>165</v>
+      </c>
+      <c r="E28">
+        <v>8</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="1">
+        <v>44573</v>
+      </c>
+      <c r="B29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29">
+        <v>165</v>
+      </c>
+      <c r="E29">
+        <v>6</v>
+      </c>
+      <c r="F29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="1">
+        <v>44573</v>
+      </c>
+      <c r="B30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30">
+        <v>155</v>
+      </c>
+      <c r="E30">
+        <v>6</v>
+      </c>
+      <c r="F30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="1">
+        <v>44573</v>
+      </c>
+      <c r="B31" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31">
+        <v>75</v>
+      </c>
+      <c r="E31">
+        <v>8</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="1">
+        <v>44573</v>
+      </c>
+      <c r="B32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32">
+        <v>75</v>
+      </c>
+      <c r="E32">
+        <v>8</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="1">
+        <v>44573</v>
+      </c>
+      <c r="B33" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33">
+        <v>75</v>
+      </c>
+      <c r="E33">
+        <v>10</v>
+      </c>
+      <c r="F33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="1"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="1"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="1"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="1"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="1"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="1"/>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1005,118 +1169,137 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27074B4C-337B-614D-A211-89D1F1B8F584}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5" customWidth="1"/>
-    <col min="6" max="6" width="11" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>44569</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="2">
-        <v>58</v>
+        <v>23</v>
+      </c>
+      <c r="C2" s="3">
+        <v>2.4472222222222224</v>
       </c>
       <c r="D2">
         <v>309</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="3">
+        <v>24</v>
+      </c>
+      <c r="F2" s="2">
         <v>0.72916666666666663</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>44570</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="2">
-        <v>60</v>
+        <v>25</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2.5354166666666669</v>
       </c>
       <c r="D3">
         <v>450</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="3">
+        <v>24</v>
+      </c>
+      <c r="F3" s="2">
         <v>0.34375</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>44571</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="2">
-        <v>50</v>
+        <v>23</v>
+      </c>
+      <c r="C4" s="3">
+        <v>2.0951388888888887</v>
       </c>
       <c r="D4">
         <v>231</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="3">
+        <v>24</v>
+      </c>
+      <c r="F4" s="2">
         <v>0.75</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>44572</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2.2368055555555553</v>
+      </c>
+      <c r="D5">
+        <v>168</v>
+      </c>
+      <c r="E5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="2">
-        <v>45</v>
-      </c>
-      <c r="D5">
-        <v>158</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="F5" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>44573</v>
+      </c>
+      <c r="B6" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="3">
-        <v>0.5</v>
+      <c r="C6" s="3">
+        <v>1.8819444444444444</v>
+      </c>
+      <c r="D6">
+        <v>238</v>
+      </c>
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.83333333333333337</v>
       </c>
     </row>
   </sheetData>
